--- a/nmadb/501334.xlsx
+++ b/nmadb/501334.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="13635" yWindow="0" windowWidth="11235" windowHeight="12375"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>Study id</t>
   </si>
@@ -427,12 +427,21 @@
   <si>
     <t>different doses of same intervention</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,7 +638,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -664,7 +672,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -840,15 +847,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="6" customWidth="1"/>
@@ -862,18 +869,18 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -889,7 +896,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -920,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -947,7 +954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -973,7 +980,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1031,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1052,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1073,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1095,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1117,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1132,7 +1139,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1161,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1183,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1205,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1220,7 +1227,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1242,7 +1249,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1271,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1287,7 +1294,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1317,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1332,7 +1339,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1354,7 +1361,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1376,7 +1383,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1405,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1427,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1449,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -1464,7 +1471,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1493,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
@@ -1508,7 +1515,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
@@ -1531,7 +1538,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1561,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
@@ -1577,7 +1584,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -1599,7 +1606,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -1621,7 +1628,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -1643,7 +1650,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1672,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
@@ -1687,7 +1694,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1716,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
@@ -1731,7 +1738,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1753,7 +1760,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -1775,7 +1782,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
@@ -1797,7 +1804,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -1819,7 +1826,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
@@ -1841,7 +1848,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
@@ -1863,7 +1870,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
         <v>50</v>
       </c>
@@ -1886,7 +1893,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>50</v>
       </c>
@@ -1909,7 +1916,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
@@ -1931,7 +1938,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -1953,7 +1960,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="9" t="s">
         <v>53</v>
       </c>
@@ -1976,7 +1983,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>53</v>
       </c>
@@ -1999,7 +2006,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
@@ -2021,7 +2028,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
@@ -2043,7 +2050,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2072,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -2087,7 +2094,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2116,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
@@ -2131,7 +2138,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
@@ -2153,7 +2160,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
         <v>63</v>
       </c>
@@ -2175,7 +2182,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
         <v>63</v>
       </c>
@@ -2197,7 +2204,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -2219,7 +2226,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
         <v>64</v>
       </c>
@@ -2242,7 +2249,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>64</v>
       </c>
@@ -2265,7 +2272,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="6" t="s">
         <v>65</v>
       </c>
@@ -2287,7 +2294,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="6" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2316,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="10" t="s">
         <v>67</v>
       </c>
@@ -2331,7 +2338,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="10" t="s">
         <v>67</v>
       </c>
@@ -2353,7 +2360,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
         <v>68</v>
       </c>
@@ -2376,7 +2383,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -2399,7 +2406,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2421,7 +2428,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="6" t="s">
         <v>71</v>
       </c>
@@ -2443,7 +2450,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="6" t="s">
         <v>71</v>
       </c>
@@ -2465,7 +2472,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>73</v>
       </c>
@@ -2488,7 +2495,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
         <v>73</v>
       </c>
@@ -2511,7 +2518,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2533,7 +2540,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="6" t="s">
         <v>76</v>
       </c>
@@ -2555,7 +2562,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="6" t="s">
         <v>76</v>
       </c>
@@ -2577,7 +2584,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="6" t="s">
         <v>77</v>
       </c>
@@ -2599,7 +2606,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="9" t="s">
         <v>77</v>
       </c>
@@ -2622,7 +2629,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="9" t="s">
         <v>77</v>
       </c>
@@ -2645,7 +2652,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -2667,7 +2674,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="9" t="s">
         <v>78</v>
       </c>
@@ -2690,7 +2697,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +2720,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="9" t="s">
         <v>80</v>
       </c>
@@ -2736,7 +2743,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="9" t="s">
         <v>80</v>
       </c>
@@ -2759,7 +2766,7 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="6" t="s">
         <v>80</v>
       </c>
@@ -2781,7 +2788,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="6" t="s">
         <v>83</v>
       </c>
@@ -2803,7 +2810,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="6" t="s">
         <v>83</v>
       </c>
@@ -2825,7 +2832,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
@@ -2847,7 +2854,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="6" t="s">
         <v>86</v>
       </c>
@@ -2869,7 +2876,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="6" t="s">
         <v>87</v>
       </c>
@@ -2891,7 +2898,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="6" t="s">
         <v>87</v>
       </c>
@@ -2913,7 +2920,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="6" t="s">
         <v>88</v>
       </c>
@@ -2935,7 +2942,7 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="6" t="s">
         <v>88</v>
       </c>
@@ -2957,7 +2964,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="6" t="s">
         <v>91</v>
       </c>
@@ -2979,7 +2986,7 @@
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="6" t="s">
         <v>91</v>
       </c>
@@ -3001,7 +3008,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -3023,7 +3030,7 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="6" t="s">
         <v>94</v>
       </c>
@@ -3045,7 +3052,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="6" t="s">
         <v>95</v>
       </c>
@@ -3067,7 +3074,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="6" t="s">
         <v>95</v>
       </c>
@@ -3089,7 +3096,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="6" t="s">
         <v>96</v>
       </c>
@@ -3111,7 +3118,7 @@
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="6" t="s">
         <v>96</v>
       </c>
@@ -3133,7 +3140,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>98</v>
       </c>
@@ -3156,7 +3163,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
         <v>98</v>
       </c>
@@ -3179,7 +3186,7 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3201,7 +3208,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>99</v>
       </c>
@@ -3224,7 +3231,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="9" t="s">
         <v>99</v>
       </c>
@@ -3247,7 +3254,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -3270,7 +3277,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -3292,7 +3299,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="6" t="s">
         <v>101</v>
       </c>
@@ -3314,7 +3321,7 @@
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="6" t="s">
         <v>101</v>
       </c>
@@ -3336,7 +3343,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="6" t="s">
         <v>103</v>
       </c>
@@ -3358,7 +3365,7 @@
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="6" t="s">
         <v>103</v>
       </c>
@@ -3380,7 +3387,7 @@
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="6" t="s">
         <v>104</v>
       </c>
@@ -3402,7 +3409,7 @@
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>104</v>
       </c>
@@ -3425,7 +3432,7 @@
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="9" t="s">
         <v>104</v>
       </c>
@@ -3448,7 +3455,7 @@
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="6" t="s">
         <v>105</v>
       </c>
@@ -3470,7 +3477,7 @@
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="6" t="s">
         <v>105</v>
       </c>
@@ -3492,7 +3499,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="6" t="s">
         <v>105</v>
       </c>
@@ -3514,7 +3521,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="6" t="s">
         <v>106</v>
       </c>
@@ -3536,7 +3543,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="6" t="s">
         <v>106</v>
       </c>
@@ -3558,7 +3565,7 @@
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="9" t="s">
         <v>108</v>
       </c>
@@ -3581,7 +3588,7 @@
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="9" t="s">
         <v>108</v>
       </c>
@@ -3604,7 +3611,7 @@
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="6" t="s">
         <v>108</v>
       </c>
@@ -3624,7 +3631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="6" t="s">
         <v>110</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="9" t="s">
         <v>110</v>
       </c>
@@ -3665,7 +3672,7 @@
       </c>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="9" t="s">
         <v>110</v>
       </c>
@@ -3686,7 +3693,7 @@
       </c>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="6" t="s">
         <v>111</v>
       </c>
@@ -3706,7 +3713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="6" t="s">
         <v>111</v>
       </c>
@@ -3726,7 +3733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="9" t="s">
         <v>113</v>
       </c>
@@ -3747,7 +3754,7 @@
       </c>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="9" t="s">
         <v>113</v>
       </c>
@@ -3768,7 +3775,7 @@
       </c>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="6" t="s">
         <v>113</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="6" t="s">
         <v>115</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="6" t="s">
         <v>115</v>
       </c>
@@ -3828,7 +3835,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="6" t="s">
         <v>117</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="6" t="s">
         <v>117</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>118</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>118</v>
       </c>
@@ -3919,15 +3926,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -3941,7 +3948,7 @@
     <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +3974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3995,7 +4002,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="C3" t="s">
         <v>12</v>
@@ -4014,7 +4021,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="C4" t="s">
         <v>7</v>
@@ -4033,7 +4040,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -4057,7 +4064,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="C6" t="s">
         <v>15</v>
@@ -4072,7 +4079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
@@ -4107,7 +4114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -4122,7 +4129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -4142,7 +4149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4157,7 +4164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -4177,7 +4184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -4192,7 +4199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4227,7 +4234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4262,7 +4269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -4282,7 +4289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -4297,7 +4304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4312,7 +4319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4347,7 +4354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -4367,7 +4374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="C24" s="3" t="s">
         <v>33</v>
@@ -4382,7 +4389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4397,7 +4404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
@@ -4417,7 +4424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="C27" s="6" t="s">
         <v>7</v>
@@ -4432,7 +4439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -4452,7 +4459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="C29" s="3" t="s">
         <v>36</v>
@@ -4467,7 +4474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="C31" s="3" t="s">
         <v>38</v>
@@ -4496,7 +4503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -4516,7 +4523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -4531,7 +4538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4"/>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -4566,7 +4573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
@@ -4586,7 +4593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4"/>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -4601,7 +4608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -4639,7 +4646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4"/>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -4674,7 +4681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4"/>
       <c r="C43" s="3" t="s">
         <v>40</v>
@@ -4709,7 +4716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4"/>
       <c r="C44" s="3" t="s">
         <v>49</v>
@@ -4724,7 +4731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
@@ -4744,7 +4751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4"/>
       <c r="C46" s="6" t="s">
         <v>52</v>
@@ -4759,7 +4766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4"/>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -4774,7 +4781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -4794,7 +4801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="C49" s="9" t="s">
         <v>54</v>
@@ -4809,7 +4816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="C50" s="9" t="s">
         <v>54</v>
@@ -4824,7 +4831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="C52" s="3" t="s">
         <v>56</v>
@@ -4859,7 +4866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="C53" s="3" t="s">
         <v>58</v>
@@ -4874,7 +4881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -4894,7 +4901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="6"/>
       <c r="C55" s="3" t="s">
         <v>58</v>
@@ -4909,7 +4916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -4929,7 +4936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="C57" s="3" t="s">
         <v>62</v>
@@ -4944,7 +4951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
@@ -4964,7 +4971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="C59" s="3" t="s">
         <v>58</v>
@@ -4979,7 +4986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4999,7 +5006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="C61" s="9" t="s">
         <v>43</v>
       </c>
@@ -5013,7 +5020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="C62" s="9" t="s">
         <v>43</v>
       </c>
@@ -5027,7 +5034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="6" t="s">
         <v>65</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="C64" s="3" t="s">
         <v>58</v>
       </c>
@@ -5061,7 +5068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="10" t="s">
         <v>67</v>
       </c>
@@ -5081,7 +5088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="C66" s="6" t="s">
         <v>58</v>
       </c>
@@ -5095,7 +5102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -5115,7 +5122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="C68" s="3" t="s">
         <v>70</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="C69" s="3" t="s">
         <v>7</v>
       </c>
@@ -5143,7 +5150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="6" t="s">
         <v>71</v>
       </c>
@@ -5163,7 +5170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="C71" s="3" t="s">
         <v>32</v>
       </c>
@@ -5177,7 +5184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="6" t="s">
         <v>73</v>
       </c>
@@ -5197,7 +5204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="C73" s="6" t="s">
         <v>75</v>
       </c>
@@ -5211,7 +5218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="C74" s="3" t="s">
         <v>58</v>
       </c>
@@ -5225,7 +5232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -5245,7 +5252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="C76" s="3" t="s">
         <v>58</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="C78" s="9" t="s">
         <v>75</v>
       </c>
@@ -5293,7 +5300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="C79" s="9" t="s">
         <v>75</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
@@ -5327,7 +5334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="C81" s="6" t="s">
         <v>79</v>
       </c>
@@ -5341,7 +5348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="C82" s="6" t="s">
         <v>75</v>
       </c>
@@ -5355,7 +5362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="6" t="s">
         <v>80</v>
       </c>
@@ -5375,7 +5382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="C84" s="9" t="s">
         <v>81</v>
       </c>
@@ -5389,7 +5396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="C85" s="3" t="s">
         <v>82</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="6" t="s">
         <v>83</v>
       </c>
@@ -5423,7 +5430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="C87" s="3" t="s">
         <v>85</v>
       </c>
@@ -5437,7 +5444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
@@ -5457,7 +5464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="C89" s="3" t="s">
         <v>58</v>
       </c>
@@ -5471,7 +5478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="6" t="s">
         <v>87</v>
       </c>
@@ -5491,7 +5498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="C91" s="6" t="s">
         <v>79</v>
       </c>
@@ -5505,7 +5512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="6" t="s">
         <v>88</v>
       </c>
@@ -5525,7 +5532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="C93" s="3" t="s">
         <v>89</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="C95" s="3" t="s">
         <v>58</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="C97" s="3" t="s">
         <v>7</v>
       </c>
@@ -5607,7 +5614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -5624,7 +5631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="C99" s="6" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -5655,7 +5662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="C101" s="3" t="s">
         <v>7</v>
       </c>
@@ -5669,7 +5676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -5686,7 +5693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="C103" s="6" t="s">
         <v>12</v>
       </c>
@@ -5700,7 +5707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
@@ -5714,7 +5721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="C106" s="6" t="s">
         <v>100</v>
       </c>
@@ -5745,7 +5752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="C107" s="6" t="s">
         <v>100</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="C108" s="3" t="s">
         <v>7</v>
       </c>
@@ -5773,7 +5780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="6" t="s">
         <v>101</v>
       </c>
@@ -5790,7 +5797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="C110" s="3" t="s">
         <v>7</v>
       </c>
@@ -5804,7 +5811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="6" t="s">
         <v>103</v>
       </c>
@@ -5821,7 +5828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="C112" s="3" t="s">
         <v>7</v>
       </c>
@@ -5835,7 +5842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -5852,7 +5859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="C114" s="3" t="s">
         <v>12</v>
       </c>
@@ -5866,7 +5873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="C115" s="6" t="s">
         <v>12</v>
       </c>
@@ -5880,7 +5887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="6" t="s">
         <v>105</v>
       </c>
@@ -5897,7 +5904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="C117" s="3" t="s">
         <v>11</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="C118" s="3" t="s">
         <v>109</v>
       </c>
@@ -5925,7 +5932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="6" t="s">
         <v>106</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="C120" s="3" t="s">
         <v>7</v>
       </c>
@@ -5956,7 +5963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -5973,7 +5980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="C122" s="3" t="s">
         <v>109</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="C123" s="6" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +6008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="C125" s="3" t="s">
         <v>100</v>
       </c>
@@ -6032,7 +6039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="C126" s="6" t="s">
         <v>100</v>
       </c>
@@ -6046,7 +6053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" s="6" t="s">
         <v>111</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="C128" s="3" t="s">
         <v>112</v>
       </c>
@@ -6077,7 +6084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="C130" s="6" t="s">
         <v>114</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="C131" s="3" t="s">
         <v>7</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" s="6" t="s">
         <v>115</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="C133" s="3" t="s">
         <v>116</v>
       </c>
@@ -6153,7 +6160,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>117</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="C135" s="3" t="s">
         <v>7</v>
       </c>
@@ -6184,7 +6191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" s="6" t="s">
         <v>118</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="C137" s="6" t="s">
         <v>7</v>
       </c>
@@ -6225,24 +6232,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
